--- a/artfynd/A 36209-2019.xlsx
+++ b/artfynd/A 36209-2019.xlsx
@@ -1031,53 +1031,67 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>86287825</v>
+        <v>86287575</v>
       </c>
       <c r="B5" t="n">
-        <v>98520</v>
+        <v>57000</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>103051</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rosenfink</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Carpodacus erythrinus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(Pallas, 1770)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Övre Kaxås, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445464.7268982467</v>
+        <v>445582.6145682154</v>
       </c>
       <c r="R5" t="n">
-        <v>7041374.691635287</v>
+        <v>7041466.940984108</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1101,22 +1115,27 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-06-11</t>
+          <t>2020-06-12</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-06-11</t>
+          <t>2020-06-12</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Totalt 2 rosenfinkar sjungande nära inpå varandra.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1127,11 +1146,6 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>granhygge</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1148,50 +1162,59 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>86288008</v>
+        <v>87187301</v>
       </c>
       <c r="B6" t="n">
-        <v>98431</v>
+        <v>57000</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222771</v>
+        <v>103051</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Rosenfink</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Carpodacus erythrinus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Pallas, 1770)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Övre Kaxås, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>445444.3685956693</v>
+        <v>445602.4062635824</v>
       </c>
       <c r="R6" t="n">
-        <v>7041335.278414091</v>
+        <v>7041473.304268382</v>
       </c>
       <c r="S6" t="n">
         <v>50</v>
@@ -1218,7 +1241,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2020-06-11</t>
+          <t>2020-07-26</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1228,7 +1251,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2020-06-11</t>
+          <t>2020-07-26</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1247,7 +1270,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>granhygge med mindre bäckflöde</t>
+          <t>nyröjd igenväxande betesmark</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1265,67 +1288,53 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>86287575</v>
+        <v>86287825</v>
       </c>
       <c r="B7" t="n">
-        <v>57000</v>
+        <v>98520</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103051</v>
+        <v>222498</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rosenfink</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carpodacus erythrinus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Pallas, 1770)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Övre Kaxås, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>445582.6145682154</v>
+        <v>445464.7268982467</v>
       </c>
       <c r="R7" t="n">
-        <v>7041466.940984108</v>
+        <v>7041374.691635287</v>
       </c>
       <c r="S7" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1349,27 +1358,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2020-06-12</t>
+          <t>2020-06-11</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2020-06-12</t>
+          <t>2020-06-11</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>04:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Totalt 2 rosenfinkar sjungande nära inpå varandra.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1380,6 +1384,11 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>granhygge</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1396,59 +1405,50 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>87187301</v>
+        <v>86288008</v>
       </c>
       <c r="B8" t="n">
-        <v>57000</v>
+        <v>98431</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>103051</v>
+        <v>222771</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rosenfink</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carpodacus erythrinus</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Pallas, 1770)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Övre Kaxås, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>445602.4062635824</v>
+        <v>445444.3685956693</v>
       </c>
       <c r="R8" t="n">
-        <v>7041473.304268382</v>
+        <v>7041335.278414091</v>
       </c>
       <c r="S8" t="n">
         <v>50</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2020-07-26</t>
+          <t>2020-06-11</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2020-07-26</t>
+          <t>2020-06-11</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>nyröjd igenväxande betesmark</t>
+          <t>granhygge med mindre bäckflöde</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>

--- a/artfynd/A 36209-2019.xlsx
+++ b/artfynd/A 36209-2019.xlsx
@@ -1031,67 +1031,53 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>86287575</v>
+        <v>86287825</v>
       </c>
       <c r="B5" t="n">
-        <v>57000</v>
+        <v>98520</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103051</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rosenfink</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carpodacus erythrinus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Pallas, 1770)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Övre Kaxås, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445582.6145682154</v>
+        <v>445464.7268982467</v>
       </c>
       <c r="R5" t="n">
-        <v>7041466.940984108</v>
+        <v>7041374.691635287</v>
       </c>
       <c r="S5" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1115,27 +1101,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-06-12</t>
+          <t>2020-06-11</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-06-12</t>
+          <t>2020-06-11</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>04:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Totalt 2 rosenfinkar sjungande nära inpå varandra.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1146,6 +1127,11 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>granhygge</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1162,59 +1148,50 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>87187301</v>
+        <v>86288008</v>
       </c>
       <c r="B6" t="n">
-        <v>57000</v>
+        <v>98431</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103051</v>
+        <v>222771</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rosenfink</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carpodacus erythrinus</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Pallas, 1770)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Övre Kaxås, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>445602.4062635824</v>
+        <v>445444.3685956693</v>
       </c>
       <c r="R6" t="n">
-        <v>7041473.304268382</v>
+        <v>7041335.278414091</v>
       </c>
       <c r="S6" t="n">
         <v>50</v>
@@ -1241,7 +1218,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2020-07-26</t>
+          <t>2020-06-11</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1251,7 +1228,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2020-07-26</t>
+          <t>2020-06-11</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1270,7 +1247,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>nyröjd igenväxande betesmark</t>
+          <t>granhygge med mindre bäckflöde</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1288,53 +1265,67 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>86287825</v>
+        <v>86287575</v>
       </c>
       <c r="B7" t="n">
-        <v>98520</v>
+        <v>57000</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222498</v>
+        <v>103051</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rosenfink</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Carpodacus erythrinus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(Pallas, 1770)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Övre Kaxås, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>445464.7268982467</v>
+        <v>445582.6145682154</v>
       </c>
       <c r="R7" t="n">
-        <v>7041374.691635287</v>
+        <v>7041466.940984108</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1358,22 +1349,27 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2020-06-11</t>
+          <t>2020-06-12</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2020-06-11</t>
+          <t>2020-06-12</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Totalt 2 rosenfinkar sjungande nära inpå varandra.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1384,11 +1380,6 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>granhygge</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1405,50 +1396,59 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>86288008</v>
+        <v>87187301</v>
       </c>
       <c r="B8" t="n">
-        <v>98431</v>
+        <v>57000</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222771</v>
+        <v>103051</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Rosenfink</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Carpodacus erythrinus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>(Pallas, 1770)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Övre Kaxås, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>445444.3685956693</v>
+        <v>445602.4062635824</v>
       </c>
       <c r="R8" t="n">
-        <v>7041335.278414091</v>
+        <v>7041473.304268382</v>
       </c>
       <c r="S8" t="n">
         <v>50</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2020-06-11</t>
+          <t>2020-07-26</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2020-06-11</t>
+          <t>2020-07-26</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>granhygge med mindre bäckflöde</t>
+          <t>nyröjd igenväxande betesmark</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
